--- a/documents/data_model/Survey123_Domains.xlsx
+++ b/documents/data_model/Survey123_Domains.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\manniongeo\projects\nwfwmd\2015-01-13_gis_support\documents\hydro_monitoring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\manniongeo\projects\nwfwmd\2015-01-13_gis_support\github\Hydrologic-Monitoring-Project\documents\data_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948CB3C9-0AE7-4585-892E-204A29AAFA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A02B11-C648-43C1-872F-148CFD23B7AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20925" tabRatio="883" firstSheet="11" activeTab="23" xr2:uid="{C4167990-FC2E-42B7-A5CF-74088AF800A5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20925" tabRatio="896" xr2:uid="{C4167990-FC2E-42B7-A5CF-74088AF800A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="159">
   <si>
     <t>Hydro Staff</t>
   </si>
@@ -422,39 +422,15 @@
     <t>Did not clean</t>
   </si>
   <si>
-    <t>Unable to pull</t>
-  </si>
-  <si>
-    <t>Recommend yes</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
-    <t>Debris removed before 2nd beam check</t>
-  </si>
-  <si>
-    <t>Can we shorten to "Debris removed"?</t>
-  </si>
-  <si>
-    <t>Follow up - Debris</t>
-  </si>
-  <si>
     <t>Follow up - Maintenance</t>
   </si>
   <si>
-    <t>Sensor failed</t>
-  </si>
-  <si>
-    <t>Current model has "Time" value. Do we still need that?</t>
-  </si>
-  <si>
     <t>Order is by most common value</t>
   </si>
   <si>
-    <t>Also evened spacing around slash</t>
-  </si>
-  <si>
     <t>Invalid data - In-Situ low battery</t>
   </si>
   <si>
@@ -464,74 +440,111 @@
     <t>Invalid data - Station maintenance</t>
   </si>
   <si>
-    <t>Measuring point - Missing</t>
-  </si>
-  <si>
-    <t>Measuring point - Inaccessible</t>
-  </si>
-  <si>
-    <t>How does this differ from "No low water MP"?</t>
-  </si>
-  <si>
-    <t>How does this differ from "Missing measuring point"?</t>
-  </si>
-  <si>
-    <t>Is high water implied, or are there other reasons a measuring point could be inaccessible?</t>
-  </si>
-  <si>
-    <t>Conduit adjustment/repair</t>
-  </si>
-  <si>
     <t>Solar panel damage</t>
   </si>
   <si>
-    <t>Recommending leading with most salient words ("solar panel"). Alternatively, make a "Damage - &lt;type&gt;" category (e.g. Damage - Solar panel, Damage - Vandalism)</t>
-  </si>
-  <si>
-    <t>1. Recommend shorter values. "Suggested" column shows examples, but don't need to be used literally.
-2. Recommend using naming patterns to categorize similar values (see "Invalid data" and "Measuring point" prefixes)
-3. Standardize on "measuring point" or "MP". Existing NWFWMD GIS standards favor complete words to avoid ambiguity, including for GIS/IT staff who aren't domain specialists (e.g. not hydrologists). But, if "MP" is the term hydro staff use (essentially) exclusively, let's use it here.</t>
-  </si>
-  <si>
-    <t>1. Should this be alphabetized?
-2. Are these values verbatim from Aquarius? If not, consider changing "Routine" to "Routine - &lt;type&gt;" to match "Extreme - &lt;type&gt;" pattern.
-3. Existing domain has other values (e.g. "Cleaning before"). Is it correct that we should remove any existing values that are not in the list below?</t>
-  </si>
-  <si>
-    <t>Existing domanin has additional values. Is it correct that we should remove existing values that are not listed below?</t>
-  </si>
-  <si>
     <t>Can user imply "ADVM" from context?</t>
   </si>
   <si>
-    <t>Recommend including "Other" choice for all exceptions. Without it, if user encounters a novel situation 1) they will need to choose a different, incorrect value, and 2) per our Survey design, they won't be able to enter comments without an "Other" choice. Other is always at the end, so it shouldn't be in their way.</t>
-  </si>
-  <si>
     <t>Low conductivity - No steel tape</t>
   </si>
   <si>
     <t>Captialized "No" per existing standard/pattern</t>
   </si>
   <si>
-    <t>Is it reasonable to make this part of the "Invalid data" cateogry, like the suggestions below?
-If we choose the original, even the spacing around the dash.</t>
-  </si>
-  <si>
-    <t>Does this mean the inventory was updated, or needs to be updated?
-Also, does "inventory" reference the physical equipment or the database records about that equipment?</t>
-  </si>
-  <si>
-    <t>Existing model has this domain with these values, and is alphabetized</t>
-  </si>
-  <si>
-    <t>Need to populate this domain</t>
+    <t>Debris removed</t>
+  </si>
+  <si>
+    <t>Add instructions in Survey to specify that debris removal happens between first and second beam checks</t>
+  </si>
+  <si>
+    <t>"No materials" is most common choice</t>
+  </si>
+  <si>
+    <t>Sensor failed after calibration</t>
+  </si>
+  <si>
+    <t>Piezo tube used infrequently</t>
+  </si>
+  <si>
+    <t>MP is entirely gone - stolen, washed away, etc. Need to find another way of getting a reading.</t>
+  </si>
+  <si>
+    <t>MP is underwater. Flags to back office that we need a new MP that is higher than the existing one.</t>
+  </si>
+  <si>
+    <t>Water is so low that it's not readable from existing low water MP (e.g. in center of creek instead of near edge where MP is). Flags to back office that we need a new low water MP.</t>
+  </si>
+  <si>
+    <t>MP - No water at MP</t>
+  </si>
+  <si>
+    <t>MP - Inaccessible due to high water</t>
+  </si>
+  <si>
+    <t>Vandalism - Solar panel</t>
+  </si>
+  <si>
+    <t>Vandalism - Enclosure</t>
+  </si>
+  <si>
+    <t>Vandalism - Data logger</t>
+  </si>
+  <si>
+    <t>Vandalism - Transducer</t>
+  </si>
+  <si>
+    <t>Non-vandalism related damage</t>
+  </si>
+  <si>
+    <t>Follow up - Conduit adjustment/repair</t>
+  </si>
+  <si>
+    <t>Inventory updated</t>
+  </si>
+  <si>
+    <t>User changed physical equipment. Flags to back office that database inventory needs to be updated to match. User must enter new inventory information in survey comments.</t>
+  </si>
+  <si>
+    <t>MP - Missing (washed away, etc.)</t>
+  </si>
+  <si>
+    <t>"Raining" is most common choice by far</t>
+  </si>
+  <si>
+    <t>&lt;remove&gt;</t>
+  </si>
+  <si>
+    <t>No access conditions need additional description (e.g. truck parked in the way) so will use "Other" for this to enable comments box.</t>
+  </si>
+  <si>
+    <t>Values and order is determined by Aquarius</t>
+  </si>
+  <si>
+    <t>No normal circumstances where this would occur; if it does, we need an explanation, so just include an "Other" choice.</t>
+  </si>
+  <si>
+    <t>Follow up - Remove debris</t>
+  </si>
+  <si>
+    <t>Unable to pull ADVM</t>
+  </si>
+  <si>
+    <t>Including "ADVM" removes ambiguity, and is consistent with values in other domains</t>
+  </si>
+  <si>
+    <t>Data logger failure</t>
+  </si>
+  <si>
+    <t>1. Keep "Transducer failure" and "Data logger failure" at top of list; alphabetize rest
+2. Standardized on "MP" over "measuring point" during review</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -563,6 +576,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -621,8 +642,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2052,7 +2073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF92362-F189-4D1A-AB7B-91E3F03BD3D0}">
   <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2777,7 +2798,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F2E2A5-2762-4967-AF60-60DD441C83C2}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2790,10 +2813,10 @@
         <v>116</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2827,13 +2850,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>146</v>
-      </c>
+      <c r="C8" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
@@ -2859,7 +2880,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C5328DB-655A-4581-B2E4-7EEB4883353D}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2872,7 +2895,7 @@
         <v>116</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2906,10 +2929,10 @@
         <v>64</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2951,7 +2974,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E0E8B1-F786-4153-BDC0-EBD24CF2DC17}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2964,7 +2989,10 @@
         <v>116</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3027,7 +3055,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C1E9A4F-297D-4861-A239-5F054BBE553E}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3131,9 +3161,11 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF18BF01-F84A-40B8-987E-03E70AF27F28}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3146,17 +3178,16 @@
         <v>116</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="10"/>
+      <c r="B2" s="5" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -3178,35 +3209,36 @@
       <c r="A6" s="6" t="s">
         <v>49</v>
       </c>
+      <c r="B6" s="6" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>61</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>149</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>72</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>150</v>
+      <c r="B9" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -3214,7 +3246,7 @@
         <v>84</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -3222,7 +3254,7 @@
         <v>89</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -3230,10 +3262,10 @@
         <v>93</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -3241,16 +3273,19 @@
         <v>97</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>100</v>
       </c>
+      <c r="B14" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="C14" s="6" t="s">
         <v>137</v>
       </c>
@@ -3260,32 +3295,50 @@
         <v>103</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="B16" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:C2"/>
-  </mergeCells>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B16:B19">
+    <sortCondition ref="B16:B19"/>
+  </sortState>
   <conditionalFormatting sqref="B1">
     <cfRule type="expression" dxfId="19" priority="1">
       <formula>$B$1 = "Recommend yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2 B5:C100">
+  <conditionalFormatting sqref="B2 B5:C103">
     <cfRule type="expression" dxfId="18" priority="3">
       <formula>NOT(ISBLANK(B2))</formula>
     </cfRule>
@@ -3303,7 +3356,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69ED5CAF-04A2-46D9-B2C8-0A09FF3B5440}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3316,7 +3371,7 @@
         <v>116</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3324,7 +3379,7 @@
         <v>117</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3354,8 +3409,14 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="10" t="s">
         <v>69</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -3380,6 +3441,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3387,7 +3449,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD504873-D79C-47B5-BF5C-69632BD8CBC4}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3399,15 +3463,17 @@
       <c r="A1" s="4" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C2" s="10"/>
+      <c r="B2" s="6" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -3451,9 +3517,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:C2"/>
-  </mergeCells>
   <conditionalFormatting sqref="B1">
     <cfRule type="expression" dxfId="15" priority="1">
       <formula>$B$1 = "Recommend yes"</formula>
@@ -3477,7 +3540,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D78BD2-29FD-4622-8FA4-861D4F8B80AE}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3588,7 +3653,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55173B87-4424-43C0-94BB-895760212049}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3649,7 +3716,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9161B06F-B70E-466F-94E2-4934B3FB5EF7}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3662,7 +3731,7 @@
         <v>116</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3735,7 +3804,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{682AF6D2-D065-4000-9345-379873B54B2B}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3754,9 +3825,6 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3814,7 +3882,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42692091-4570-4499-AAA0-81670490569D}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3827,7 +3897,7 @@
         <v>116</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3959,9 +4029,9 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A165DF-7A17-476E-88DE-63FDB1EB3A7F}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -3981,7 +4051,7 @@
         <v>117</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3995,14 +4065,19 @@
         <v>115</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$B$1 = "Recommend yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2 B5:C100">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>NOT(ISBLANK(B2))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4032,7 +4107,7 @@
         <v>116</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -4058,17 +4133,17 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$B$1 = "Recommend yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2 B5:C100">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>NOT(ISBLANK(B2))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4085,7 +4160,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C91A41B-4A78-4585-B678-464240727418}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4125,7 +4202,7 @@
         <v>119</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -4157,7 +4234,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF739EA9-9791-48A8-AF08-C1BCAA21B120}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4199,19 +4278,17 @@
         <v>42</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>146</v>
-      </c>
+      <c r="C7" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
@@ -4237,7 +4314,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22EF8B0B-2B2F-4820-A9E7-C2F31D0A99B9}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4250,7 +4329,7 @@
         <v>116</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -4274,10 +4353,10 @@
         <v>26</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -4285,7 +4364,7 @@
         <v>43</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -4293,7 +4372,7 @@
         <v>57</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4386,7 +4465,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{631B5C1A-9670-47C6-A668-A7E2307C80DC}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4399,7 +4480,10 @@
         <v>116</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -4457,7 +4541,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD9DBA4-513E-464E-943B-E511EDBC217B}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4477,9 +4563,6 @@
       <c r="A2" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>128</v>
-      </c>
     </row>
     <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -4502,7 +4585,7 @@
         <v>53</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -4539,7 +4622,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5866F2DB-9AA5-42FD-928C-B0C03AE3FC05}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4592,7 +4677,7 @@
       <formula>NOT(ISBLANK(B2))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{F1D86ECA-C34F-4A51-91D7-958D583DFD4F}">
       <formula1>"Yes,No,Recommend yes"</formula1>
     </dataValidation>

--- a/documents/data_model/Survey123_Domains.xlsx
+++ b/documents/data_model/Survey123_Domains.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\manniongeo\projects\nwfwmd\2015-01-13_gis_support\github\Hydrologic-Monitoring-Project\documents\data_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A02B11-C648-43C1-872F-148CFD23B7AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CDBBA9-5720-43A8-903A-D2CCE242C11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20925" tabRatio="896" xr2:uid="{C4167990-FC2E-42B7-A5CF-74088AF800A5}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="896" xr2:uid="{C4167990-FC2E-42B7-A5CF-74088AF800A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="159">
   <si>
     <t>Hydro Staff</t>
   </si>
@@ -443,9 +443,6 @@
     <t>Solar panel damage</t>
   </si>
   <si>
-    <t>Can user imply "ADVM" from context?</t>
-  </si>
-  <si>
     <t>Low conductivity - No steel tape</t>
   </si>
   <si>
@@ -455,9 +452,6 @@
     <t>Debris removed</t>
   </si>
   <si>
-    <t>Add instructions in Survey to specify that debris removal happens between first and second beam checks</t>
-  </si>
-  <si>
     <t>"No materials" is most common choice</t>
   </si>
   <si>
@@ -515,9 +509,6 @@
     <t>&lt;remove&gt;</t>
   </si>
   <si>
-    <t>No access conditions need additional description (e.g. truck parked in the way) so will use "Other" for this to enable comments box.</t>
-  </si>
-  <si>
     <t>Values and order is determined by Aquarius</t>
   </si>
   <si>
@@ -528,9 +519,6 @@
   </si>
   <si>
     <t>Unable to pull ADVM</t>
-  </si>
-  <si>
-    <t>Including "ADVM" removes ambiguity, and is consistent with values in other domains</t>
   </si>
   <si>
     <t>Data logger failure</t>
@@ -538,6 +526,18 @@
   <si>
     <t>1. Keep "Transducer failure" and "Data logger failure" at top of list; alphabetize rest
 2. Standardized on "MP" over "measuring point" during review</t>
+  </si>
+  <si>
+    <t>Created issue #118 to add Survey hint specifying that debris removal happens between first and second beam checks</t>
+  </si>
+  <si>
+    <t>No access conditions need additional description (e.g. truck parked in the way) so will use "Other" for this to enable comments box</t>
+  </si>
+  <si>
+    <t>Battery is low, but has solar panel so will recharge when sunny</t>
+  </si>
+  <si>
+    <t>Required for exposing comments question in survey. Added "Other" instead of changing survey for consistency with how we're handling comments elsewhere.</t>
   </si>
 </sst>
 </file>
@@ -2798,9 +2798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F2E2A5-2762-4967-AF60-60DD441C83C2}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2880,9 +2878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C5328DB-655A-4581-B2E4-7EEB4883353D}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2929,10 +2925,10 @@
         <v>64</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2974,9 +2970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E0E8B1-F786-4153-BDC0-EBD24CF2DC17}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2992,7 +2986,7 @@
         <v>120</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3055,9 +3049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C1E9A4F-297D-4861-A239-5F054BBE553E}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3163,9 +3155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF18BF01-F84A-40B8-987E-03E70AF27F28}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3186,7 +3176,7 @@
         <v>117</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3210,7 +3200,7 @@
         <v>49</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3227,7 +3217,7 @@
         <v>72</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -3235,10 +3225,10 @@
         <v>78</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -3262,10 +3252,10 @@
         <v>93</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -3273,10 +3263,10 @@
         <v>97</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -3284,10 +3274,10 @@
         <v>100</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -3298,7 +3288,7 @@
         <v>126</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -3306,22 +3296,22 @@
         <v>105</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -3356,9 +3346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69ED5CAF-04A2-46D9-B2C8-0A09FF3B5440}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3379,7 +3367,7 @@
         <v>117</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3413,10 +3401,10 @@
         <v>69</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -3449,9 +3437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD504873-D79C-47B5-BF5C-69632BD8CBC4}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3472,7 +3458,7 @@
         <v>117</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3540,9 +3526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D78BD2-29FD-4622-8FA4-861D4F8B80AE}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3653,9 +3637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55173B87-4424-43C0-94BB-895760212049}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3716,9 +3698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9161B06F-B70E-466F-94E2-4934B3FB5EF7}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3804,9 +3784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{682AF6D2-D065-4000-9345-379873B54B2B}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3882,9 +3860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42692091-4570-4499-AAA0-81670490569D}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4031,9 +4007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A165DF-7A17-476E-88DE-63FDB1EB3A7F}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4051,7 +4025,7 @@
         <v>117</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4160,9 +4134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C91A41B-4A78-4585-B678-464240727418}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4200,9 +4172,6 @@
       </c>
       <c r="B5" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -4234,9 +4203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF739EA9-9791-48A8-AF08-C1BCAA21B120}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4278,10 +4245,7 @@
         <v>42</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -4312,11 +4276,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22EF8B0B-2B2F-4820-A9E7-C2F31D0A99B9}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4353,10 +4315,10 @@
         <v>26</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -4364,7 +4326,7 @@
         <v>43</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -4373,6 +4335,14 @@
       </c>
       <c r="B7" s="6" t="s">
         <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -4465,9 +4435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{631B5C1A-9670-47C6-A668-A7E2307C80DC}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4483,7 +4451,7 @@
         <v>120</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -4510,6 +4478,9 @@
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>45</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -4541,9 +4512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD9DBA4-513E-464E-943B-E511EDBC217B}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4585,7 +4554,7 @@
         <v>53</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -4622,9 +4591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5866F2DB-9AA5-42FD-928C-B0C03AE3FC05}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
